--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/C3-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/C3-Nrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H2">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I2">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J2">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N2">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O2">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P2">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q2">
-        <v>73.02894786466</v>
+        <v>213.2188395643625</v>
       </c>
       <c r="R2">
-        <v>292.11579145864</v>
+        <v>852.87535825745</v>
       </c>
       <c r="S2">
-        <v>0.001212273452459306</v>
+        <v>0.002429085675584754</v>
       </c>
       <c r="T2">
-        <v>0.0006056311328238841</v>
+        <v>0.001250398569040542</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H3">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I3">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J3">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O3">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P3">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q3">
-        <v>18.59364876747333</v>
+        <v>55.94041402618168</v>
       </c>
       <c r="R3">
-        <v>111.56189260484</v>
+        <v>335.6424841570901</v>
       </c>
       <c r="S3">
-        <v>0.0003086527663924952</v>
+        <v>0.0006372985552069861</v>
       </c>
       <c r="T3">
-        <v>0.0002312964837021219</v>
+        <v>0.0004920846614172559</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H4">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I4">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J4">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N4">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O4">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P4">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q4">
-        <v>55.82757672337</v>
+        <v>114.8325978883233</v>
       </c>
       <c r="R4">
-        <v>334.96546034022</v>
+        <v>688.9955873299401</v>
       </c>
       <c r="S4">
-        <v>0.000926732359643199</v>
+        <v>0.001308225010466346</v>
       </c>
       <c r="T4">
-        <v>0.0006944695122086356</v>
+        <v>0.001010134819972774</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H5">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I5">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J5">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N5">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O5">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P5">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q5">
-        <v>13.115039400405</v>
+        <v>56.87637565709001</v>
       </c>
       <c r="R5">
-        <v>52.46015760162</v>
+        <v>227.50550262836</v>
       </c>
       <c r="S5">
-        <v>0.0002177083821956937</v>
+        <v>0.0006479614543916058</v>
       </c>
       <c r="T5">
-        <v>0.0001087633931659154</v>
+        <v>0.0003335452855814359</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H6">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I6">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J6">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N6">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O6">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P6">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q6">
-        <v>56.47382007032667</v>
+        <v>39.13416246878418</v>
       </c>
       <c r="R6">
-        <v>338.84292042196</v>
+        <v>234.804974812705</v>
       </c>
       <c r="S6">
-        <v>0.0009374599365322415</v>
+        <v>0.0004458341189416106</v>
       </c>
       <c r="T6">
-        <v>0.0007025084837755531</v>
+        <v>0.000344247024687493</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H7">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I7">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J7">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N7">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O7">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P7">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q7">
-        <v>48.34480131499</v>
+        <v>194.9647116681734</v>
       </c>
       <c r="R7">
-        <v>290.06880788994</v>
+        <v>1169.78827000904</v>
       </c>
       <c r="S7">
-        <v>0.0008025190135176948</v>
+        <v>0.002221126375724011</v>
       </c>
       <c r="T7">
-        <v>0.0006013872096474158</v>
+        <v>0.001715023848136766</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>324.26945</v>
       </c>
       <c r="I8">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J8">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N8">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O8">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P8">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q8">
-        <v>11637.28322750757</v>
+        <v>11293.30565314491</v>
       </c>
       <c r="R8">
-        <v>69823.6993650454</v>
+        <v>67759.8339188695</v>
       </c>
       <c r="S8">
-        <v>0.1931777730332641</v>
+        <v>0.1286584574238519</v>
       </c>
       <c r="T8">
-        <v>0.1447624790609587</v>
+        <v>0.09934253411153596</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>324.26945</v>
       </c>
       <c r="I9">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J9">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O9">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P9">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q9">
         <v>2962.928581976656</v>
@@ -1013,10 +1013,10 @@
         <v>26666.3572377899</v>
       </c>
       <c r="S9">
-        <v>0.04918432712627604</v>
+        <v>0.03375502554542131</v>
       </c>
       <c r="T9">
-        <v>0.05528621394128129</v>
+        <v>0.03909548401044464</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>324.26945</v>
       </c>
       <c r="I10">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J10">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N10">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O10">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P10">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q10">
-        <v>8896.216380376716</v>
+        <v>6082.200004217045</v>
       </c>
       <c r="R10">
-        <v>80065.94742339046</v>
+        <v>54739.80003795341</v>
       </c>
       <c r="S10">
-        <v>0.147676329190047</v>
+        <v>0.06929117959965918</v>
       </c>
       <c r="T10">
-        <v>0.165997292363125</v>
+        <v>0.08025389287465023</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>324.26945</v>
       </c>
       <c r="I11">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J11">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N11">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O11">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P11">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q11">
-        <v>2089.903148067825</v>
+        <v>3012.502535193267</v>
       </c>
       <c r="R11">
-        <v>12539.41888840695</v>
+        <v>18075.0152111596</v>
       </c>
       <c r="S11">
-        <v>0.03469218958636779</v>
+        <v>0.0343197944930744</v>
       </c>
       <c r="T11">
-        <v>0.02599743898958083</v>
+        <v>0.02649973754851718</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>324.26945</v>
       </c>
       <c r="I12">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J12">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N12">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O12">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P12">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q12">
-        <v>8999.196323020344</v>
+        <v>2072.772083099173</v>
       </c>
       <c r="R12">
-        <v>80992.7669071831</v>
+        <v>18654.94874789255</v>
       </c>
       <c r="S12">
-        <v>0.1493857862512936</v>
+        <v>0.02361395918904399</v>
       </c>
       <c r="T12">
-        <v>0.1679188274197878</v>
+        <v>0.02734997675105562</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>324.26945</v>
       </c>
       <c r="I13">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J13">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N13">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O13">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P13">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q13">
-        <v>7703.823783998017</v>
+        <v>10326.46123083938</v>
       </c>
       <c r="R13">
-        <v>69334.41405598215</v>
+        <v>92938.1510775544</v>
       </c>
       <c r="S13">
-        <v>0.1278827277242586</v>
+        <v>0.1176437274800073</v>
       </c>
       <c r="T13">
-        <v>0.1437480648297992</v>
+        <v>0.1362564060404809</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H14">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I14">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J14">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N14">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O14">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P14">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q14">
-        <v>1893.075103416341</v>
+        <v>5181.47542483565</v>
       </c>
       <c r="R14">
-        <v>11358.45062049804</v>
+        <v>31088.8525490139</v>
       </c>
       <c r="S14">
-        <v>0.03142486313285418</v>
+        <v>0.0590297168795134</v>
       </c>
       <c r="T14">
-        <v>0.02354898816687343</v>
+        <v>0.0455792940481052</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H15">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I15">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J15">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O15">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P15">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q15">
-        <v>481.9893287878683</v>
+        <v>1359.419651302887</v>
       </c>
       <c r="R15">
-        <v>4337.903959090814</v>
+        <v>12234.77686172598</v>
       </c>
       <c r="S15">
-        <v>0.008000976116225371</v>
+        <v>0.01548712491276586</v>
       </c>
       <c r="T15">
-        <v>0.008993590095581521</v>
+        <v>0.01793737775668566</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H16">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I16">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J16">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N16">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O16">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P16">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q16">
-        <v>1447.17675208656</v>
+        <v>2790.570876119854</v>
       </c>
       <c r="R16">
-        <v>13024.59076877904</v>
+        <v>25115.13788507869</v>
       </c>
       <c r="S16">
-        <v>0.02402299374245526</v>
+        <v>0.03179144842799202</v>
       </c>
       <c r="T16">
-        <v>0.02700332502558325</v>
+        <v>0.03682124494360014</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H17">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I17">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J17">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N17">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O17">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P17">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q17">
-        <v>339.9714126409545</v>
+        <v>1382.16464981732</v>
       </c>
       <c r="R17">
-        <v>2039.828475845727</v>
+        <v>8292.987898903921</v>
       </c>
       <c r="S17">
-        <v>0.005643492480591496</v>
+        <v>0.01574624624648801</v>
       </c>
       <c r="T17">
-        <v>0.004229088829549907</v>
+        <v>0.01215833017270717</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H18">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I18">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J18">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N18">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O18">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P18">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q18">
-        <v>1463.928837754552</v>
+        <v>951.007432166057</v>
       </c>
       <c r="R18">
-        <v>13175.35953979097</v>
+        <v>8559.066889494512</v>
       </c>
       <c r="S18">
-        <v>0.02430107673998477</v>
+        <v>0.01083430777303281</v>
       </c>
       <c r="T18">
-        <v>0.0273159074475279</v>
+        <v>0.01254842795881977</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H19">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I19">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J19">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N19">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O19">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P19">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q19">
-        <v>1253.206330161378</v>
+        <v>4737.878061257655</v>
       </c>
       <c r="R19">
-        <v>11278.8569714524</v>
+        <v>42640.90255131889</v>
       </c>
       <c r="S19">
-        <v>0.02080310354907593</v>
+        <v>0.05397605462435792</v>
       </c>
       <c r="T19">
-        <v>0.02338397007046584</v>
+        <v>0.06251572755215147</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H20">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I20">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J20">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N20">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O20">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P20">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q20">
-        <v>47.902429190894</v>
+        <v>95.24564882517248</v>
       </c>
       <c r="R20">
-        <v>191.609716763576</v>
+        <v>380.9825953006899</v>
       </c>
       <c r="S20">
-        <v>0.0007951756791574154</v>
+        <v>0.00108508160768394</v>
       </c>
       <c r="T20">
-        <v>0.0003972562018784891</v>
+        <v>0.0005585576923768195</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H21">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I21">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J21">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O21">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P21">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q21">
-        <v>12.19627243069267</v>
+        <v>24.98879104847633</v>
       </c>
       <c r="R21">
-        <v>73.17763458415601</v>
+        <v>149.932746290858</v>
       </c>
       <c r="S21">
-        <v>0.0002024569395973029</v>
+        <v>0.0002846836354144562</v>
       </c>
       <c r="T21">
-        <v>0.0001517160489998694</v>
+        <v>0.0002198160488508519</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H22">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I22">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J22">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N22">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O22">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P22">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q22">
-        <v>36.61940393618301</v>
+        <v>51.29614866350467</v>
       </c>
       <c r="R22">
-        <v>219.716423617098</v>
+        <v>307.776891981028</v>
       </c>
       <c r="S22">
-        <v>0.0006078785541178649</v>
+        <v>0.000584388978880886</v>
       </c>
       <c r="T22">
-        <v>0.0004555286308582743</v>
+        <v>0.0004512309818671692</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H23">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I23">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J23">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N23">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O23">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P23">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q23">
-        <v>8.6026468213395</v>
+        <v>25.406888590858</v>
       </c>
       <c r="R23">
-        <v>34.410587285358</v>
+        <v>101.627554363432</v>
       </c>
       <c r="S23">
-        <v>0.0001428031029793868</v>
+        <v>0.0002894467921470954</v>
       </c>
       <c r="T23">
-        <v>7.134199371661567E-05</v>
+        <v>0.0001489959198853606</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H24">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I24">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J24">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N24">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O24">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P24">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q24">
-        <v>37.04329921432733</v>
+        <v>17.48137595713684</v>
       </c>
       <c r="R24">
-        <v>222.259795285964</v>
+        <v>104.888255742821</v>
       </c>
       <c r="S24">
-        <v>0.0006149151746271672</v>
+        <v>0.0001991557594711262</v>
       </c>
       <c r="T24">
-        <v>0.0004608016941778436</v>
+        <v>0.0001537764265553936</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H25">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I25">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J25">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N25">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O25">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P25">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q25">
-        <v>31.711170562541</v>
+        <v>87.09146198707467</v>
       </c>
       <c r="R25">
-        <v>190.267023375246</v>
+        <v>522.5487719224481</v>
       </c>
       <c r="S25">
-        <v>0.0005264023560988552</v>
+        <v>0.0009921854148102975</v>
       </c>
       <c r="T25">
-        <v>0.0003944724533048534</v>
+        <v>0.0007661075329936863</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H26">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I26">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J26">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N26">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O26">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P26">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q26">
-        <v>127.235373730112</v>
+        <v>10199.6782166021</v>
       </c>
       <c r="R26">
-        <v>763.412242380672</v>
+        <v>61198.06929961263</v>
       </c>
       <c r="S26">
-        <v>0.002112094865074653</v>
+        <v>0.1161993579091924</v>
       </c>
       <c r="T26">
-        <v>0.00158274983648082</v>
+        <v>0.08972234634217269</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H27">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I27">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J27">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O27">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P27">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q27">
-        <v>32.39496006871467</v>
+        <v>2676.002850106094</v>
       </c>
       <c r="R27">
-        <v>291.554640618432</v>
+        <v>24084.02565095485</v>
       </c>
       <c r="S27">
-        <v>0.0005377531955898035</v>
+        <v>0.03048623754025507</v>
       </c>
       <c r="T27">
-        <v>0.0006044677228714703</v>
+        <v>0.03530953370750243</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H28">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I28">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J28">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N28">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O28">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P28">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q28">
-        <v>97.266122497184</v>
+        <v>5493.20852524293</v>
       </c>
       <c r="R28">
-        <v>875.3951024746561</v>
+        <v>49438.87672718637</v>
       </c>
       <c r="S28">
-        <v>0.001614608200922079</v>
+        <v>0.06258112167259863</v>
       </c>
       <c r="T28">
-        <v>0.001814919094010264</v>
+        <v>0.07248222160029277</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H29">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I29">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J29">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N29">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O29">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P29">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q29">
-        <v>22.849801186896</v>
+        <v>2720.776133169898</v>
       </c>
       <c r="R29">
-        <v>137.098807121376</v>
+        <v>16324.65679901939</v>
       </c>
       <c r="S29">
-        <v>0.000379304483808013</v>
+        <v>0.03099631507731229</v>
       </c>
       <c r="T29">
-        <v>0.0002842410725250995</v>
+        <v>0.02393354117215579</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H30">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I30">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J30">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N30">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O30">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P30">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q30">
-        <v>98.39204606824534</v>
+        <v>1872.047823134953</v>
       </c>
       <c r="R30">
-        <v>885.528414614208</v>
+        <v>16848.43040821458</v>
       </c>
       <c r="S30">
-        <v>0.001633298423013535</v>
+        <v>0.02132721742824261</v>
       </c>
       <c r="T30">
-        <v>0.001835928055147525</v>
+        <v>0.02470144443621182</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H31">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I31">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J31">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N31">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O31">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P31">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q31">
-        <v>84.229186412768</v>
+        <v>9326.461614137543</v>
       </c>
       <c r="R31">
-        <v>758.062677714912</v>
+        <v>83938.15452723789</v>
       </c>
       <c r="S31">
-        <v>0.001398196326197614</v>
+        <v>0.1062512785318578</v>
       </c>
       <c r="T31">
-        <v>0.001571658813662571</v>
+        <v>0.1230615321366571</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>25.99611466666667</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H32">
-        <v>77.988344</v>
+        <v>21.406827</v>
       </c>
       <c r="I32">
-        <v>0.1688341281153816</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J32">
-        <v>0.1692456759269281</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N32">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O32">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P32">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q32">
-        <v>2798.821929023195</v>
+        <v>745.5338157047951</v>
       </c>
       <c r="R32">
-        <v>16792.93157413917</v>
+        <v>4473.20289422877</v>
       </c>
       <c r="S32">
-        <v>0.04646017260174255</v>
+        <v>0.008493459190063278</v>
       </c>
       <c r="T32">
-        <v>0.03481606428018071</v>
+        <v>0.006558152306568655</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>25.99611466666667</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H33">
-        <v>77.988344</v>
+        <v>21.406827</v>
       </c>
       <c r="I33">
-        <v>0.1688341281153816</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J33">
-        <v>0.1692456759269281</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O33">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P33">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q33">
-        <v>712.5984069687343</v>
+        <v>195.5993682652794</v>
       </c>
       <c r="R33">
-        <v>6413.385662718609</v>
+        <v>1760.394314387514</v>
       </c>
       <c r="S33">
-        <v>0.01182906445035925</v>
+        <v>0.002228356671377506</v>
       </c>
       <c r="T33">
-        <v>0.01329659723205575</v>
+        <v>0.002580909989186015</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>25.99611466666667</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H34">
-        <v>77.988344</v>
+        <v>21.406827</v>
       </c>
       <c r="I34">
-        <v>0.1688341281153816</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J34">
-        <v>0.1692456759269281</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N34">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O34">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P34">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q34">
-        <v>2139.582323808963</v>
+        <v>401.5197955579027</v>
       </c>
       <c r="R34">
-        <v>19256.24091428066</v>
+        <v>3613.678160021125</v>
       </c>
       <c r="S34">
-        <v>0.03551685908595653</v>
+        <v>0.004574295525883901</v>
       </c>
       <c r="T34">
-        <v>0.0399231378098799</v>
+        <v>0.005298005102991264</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>25.99611466666667</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H35">
-        <v>77.988344</v>
+        <v>21.406827</v>
       </c>
       <c r="I35">
-        <v>0.1688341281153816</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J35">
-        <v>0.1692456759269281</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N35">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O35">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P35">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q35">
-        <v>502.631640563724</v>
+        <v>198.8720201916761</v>
       </c>
       <c r="R35">
-        <v>3015.789843382344</v>
+        <v>1193.232121150056</v>
       </c>
       <c r="S35">
-        <v>0.008343636489884782</v>
+        <v>0.002265640205664754</v>
       </c>
       <c r="T35">
-        <v>0.006252507644609883</v>
+        <v>0.001749394823491734</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>25.99611466666667</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H36">
-        <v>77.988344</v>
+        <v>21.406827</v>
       </c>
       <c r="I36">
-        <v>0.1688341281153816</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J36">
-        <v>0.1692456759269281</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N36">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O36">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P36">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q36">
-        <v>2164.349489485506</v>
+        <v>136.8351949076104</v>
       </c>
       <c r="R36">
-        <v>19479.14540536955</v>
+        <v>1231.516754168493</v>
       </c>
       <c r="S36">
-        <v>0.03592799163435333</v>
+        <v>0.001558888569814162</v>
       </c>
       <c r="T36">
-        <v>0.04038527612419561</v>
+        <v>0.001805523834465041</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>25.99611466666667</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H37">
-        <v>77.988344</v>
+        <v>21.406827</v>
       </c>
       <c r="I37">
-        <v>0.1688341281153816</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J37">
-        <v>0.1692456759269281</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N37">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O37">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P37">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q37">
-        <v>1852.806236855859</v>
+        <v>681.7070466884428</v>
       </c>
       <c r="R37">
-        <v>16675.25613170273</v>
+        <v>6135.363420195986</v>
       </c>
       <c r="S37">
-        <v>0.03075640385308518</v>
+        <v>0.007766315703806393</v>
       </c>
       <c r="T37">
-        <v>0.03457209283600624</v>
+        <v>0.008995041968185192</v>
       </c>
     </row>
   </sheetData>
